--- a/mosip_master/xlsx/doc_type.xlsx
+++ b/mosip_master/xlsx/doc_type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Madagascar\MDG_Master_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MOSIP\Country Details\Seirra Leone\SLE_Master_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABE68A15-8332-41C6-B841-82921FCE6076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{997A0EB7-9119-457E-B2B7-18FE4AE33C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5DB3C417-A9ED-419F-B5C3-316648624420}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A0B2CA84-D244-4D76-A9E8-529C1294396B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,67 +42,67 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>fra</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>Facture Jirama</t>
-  </si>
-  <si>
-    <t>RNC</t>
-  </si>
-  <si>
-    <t>Droit Impôts Communes</t>
-  </si>
-  <si>
-    <t>COR</t>
-  </si>
-  <si>
-    <t>Certificat de résidence</t>
+    <t>eng</t>
   </si>
   <si>
     <t>DOC001</t>
   </si>
   <si>
-    <t>Carte de résident</t>
-  </si>
-  <si>
-    <t>CRN</t>
-  </si>
-  <si>
-    <t>COB</t>
-  </si>
-  <si>
-    <t>Attestation Identité fkt</t>
-  </si>
-  <si>
-    <t>COE</t>
-  </si>
-  <si>
-    <t>Certification of Exception</t>
-  </si>
-  <si>
-    <t>Certificate of Exception</t>
+    <t>Utility bill</t>
+  </si>
+  <si>
+    <t>DOC004</t>
+  </si>
+  <si>
+    <t>Attestation</t>
   </si>
   <si>
     <t>DOC002</t>
   </si>
   <si>
-    <t>Copie acte de naissance</t>
+    <t>Birth Certificate</t>
+  </si>
+  <si>
+    <t>DOC005</t>
+  </si>
+  <si>
+    <t>Drivers Licence</t>
+  </si>
+  <si>
+    <t>DOC006</t>
+  </si>
+  <si>
+    <t>National ID Card</t>
+  </si>
+  <si>
+    <t>DOC007</t>
+  </si>
+  <si>
+    <t>Passport</t>
+  </si>
+  <si>
+    <t>DOC008</t>
+  </si>
+  <si>
+    <t>Voter ID</t>
+  </si>
+  <si>
+    <t>DOC009</t>
+  </si>
+  <si>
+    <t>NASSIT</t>
+  </si>
+  <si>
+    <t>DOC010</t>
+  </si>
+  <si>
+    <t>WASSCE</t>
   </si>
   <si>
     <t>DOC003</t>
   </si>
   <si>
-    <t>Livret de famille</t>
-  </si>
-  <si>
-    <t>EOP</t>
-  </si>
-  <si>
-    <t>Exception Photo</t>
+    <t>Signed Consent Form</t>
   </si>
 </sst>
 </file>
@@ -120,14 +120,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -225,17 +225,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,28 +546,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0168332-BE04-4406-A8F0-3AB1F61EB9A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E57B47-62D4-446D-93B6-F9F04E6C75B7}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="24.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6328125" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" customWidth="1"/>
+    <col min="5" max="5" width="19.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,7 +586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -598,7 +603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -615,24 +620,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -649,49 +654,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>19</v>
@@ -700,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -717,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -734,17 +739,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="6" t="b">
